--- a/Week 5 Phase I/Peer Review Log (Phase 1)_v7.xlsx
+++ b/Week 5 Phase I/Peer Review Log (Phase 1)_v7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kory\Documents\GitHub\Modular-Study-Repo\Week 5 Phase I\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D4232-D23B-478A-803F-9BD2ADC3CE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Plan Peer Review</t>
   </si>
@@ -111,12 +112,24 @@
   </si>
   <si>
     <t>Updated UML diagram.</t>
+  </si>
+  <si>
+    <t>K. Bennett</t>
+  </si>
+  <si>
+    <t>Final Review</t>
+  </si>
+  <si>
+    <t>Grammar Corrections / Formatting</t>
+  </si>
+  <si>
+    <t>Corrected errors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,9 +238,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,181 +652,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>43875</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>43876</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>43876</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>43877</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>43877</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43877</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
